--- a/SomeWritings/缺陷发现.xlsx
+++ b/SomeWritings/缺陷发现.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIt_tank\Tank1990\SomeWritings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C022DE9-AC02-448C-8E82-C7CA3E3661FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC87138-0F63-4A74-B38A-5EDD84865216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>顺序</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,15 +55,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>坦克在关卡中退出无法保存数据，从头开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>坦克会自动射击，无法通过J触发</t>
+    <t>玩家坦克会自动射击，无法通过J触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainwindow.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bullet.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人碰撞时玩家会直接死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方坦克爆炸时音效不能出现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS与玩家坦克无法正确发生碰撞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -389,19 +409,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="36.92578125" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="36.9140625" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -409,10 +430,13 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -420,10 +444,13 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -431,10 +458,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -442,28 +472,65 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
         <v>3</v>
       </c>
     </row>
